--- a/Scale/CycleDeck/T07/cycle_deck.xlsx
+++ b/Scale/CycleDeck/T07/cycle_deck.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greyl\PyExplore\Scale\CycleDeck\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greyl\PyExplore\Scale\CycleDeck\T07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12DD35E1-D964-451F-A8D2-3D68BDCF2819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE359F3-9AE3-4A79-BDA2-047705B86F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1050" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>Title</t>
   </si>
@@ -510,6 +510,12 @@
       </rPr>
       <t>]</t>
     </r>
+  </si>
+  <si>
+    <t>Recuperator_Effectiveness</t>
+  </si>
+  <si>
+    <t>['recuperator_eff']</t>
   </si>
 </sst>
 </file>
@@ -591,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -616,6 +622,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -922,10 +934,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,6 +1311,20 @@
       <c r="E20"/>
       <c r="F20" s="1"/>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
